--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(SA)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(SA).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(SA)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(SA).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(SA)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(SA)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(SA)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(SA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,20 +525,104 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sa
-Sab
-Sabin
-Sabin chinensio
-Sag
-Sagina - fam. Caryophyllacées
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sab</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sabin
+Sabin chinensio</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sag</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sagina - fam. Caryophyllacées
 Sagina nodosa
 Sagina subulata -  Sagine à feuilles subulées
 Sagittaria - Alismatacées
 Sagittaria sagittifolia
 Sagittaria calycina
-Sagittaria calycina spongiosa
-Sal
-Salix - fam. Salicacées
+Sagittaria calycina spongiosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sal</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Salix - fam. Salicacées
 Salix acutifolia -  Saule à feuilles aiguës
 Salix acutifolia pendulifolia  Saule à feuilles aiguës
 Salix alba -  Saule blanc
@@ -586,9 +682,47 @@
 Salvia verbenaca
 Salvia verticillata
 Salvia virgata
-Salvia viridis
-Sam
-Samanea
+Salvia viridis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Samanea
 Sambucus - fam. Adoxaceae - voir aussi variétés néartiques
 Sambucus ebulus - sureau hièble
 Sambucus nigra - Sureau noir
@@ -598,9 +732,47 @@
 Sambucus racemosa aurea - Sureau
 Sambucus racemosa racemosa - Sureau à grappes européen et asiatique
 Samolus
-Samolus parviflorus - Samolus
-San
-Sanguisorba - fam. Rosacées
+Samolus parviflorus - Samolus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>San</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sanguisorba - fam. Rosacées
 Sanguisorba albanica
 Sanguisorba ancistroides
 Sanguisorba cretica
@@ -617,33 +789,223 @@
 Santolina chamaecyparissus - Santoline petit-cyprès
 Santolina rosmarinifolia - Santoline à feuilles de romarin
 Sanvitalia - fam. Astéracées
-Sanvitalia procumbens - Sanvitalia
-Sap
-Saponaria - fam. Caryophyllacées
+Sanvitalia procumbens - Sanvitalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sap</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Saponaria - fam. Caryophyllacées
 Saponaria calabrica - Saponaire de la Calabre
 Saponaria ocymoides -  Saponaire faux basilic, Saponaire de Montpellier
-Saponaria officinalis - Saponaire officinale
-Sar
-Sarcobatus - fam. Sarcobatacées
+Saponaria officinalis - Saponaire officinale</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sar</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sarcobatus - fam. Sarcobatacées
 Sarcobatus vermiculatus
 Sarcococca
 Sarcopoterium
 Sarcopoterium spinosum - Pimprenelle épineuse
 Sarracenia - fam. Sarracéniacées
 Sarracenia purpurea - Sarracénie pourpre
-Sarracenia purpurea hookeriana - Sarracénie pourpre
-Sas
-Sassafras - fam. Lauracées
+Sarracenia purpurea hookeriana - Sarracénie pourpre</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sas</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sassafras - fam. Lauracées
 Sassafras albidum - Sassafras
-Sassafras officinalis ou Ocotea pretiosa -  Sassafras officinal ou « Laurier des Iroquois »
-Sat
-Satureja - fam. Lamiacées
+Sassafras officinalis ou Ocotea pretiosa -  Sassafras officinal ou « Laurier des Iroquois »</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Satureja - fam. Lamiacées
 Satureja hortensis -  Sarriette commune,
 Satureja montana - Sarriette vivace
 Saururus - fam. Saururacées
-Saururus cernuus -  Queue de Renard
-Sax
-Saxifraga - fam. Saxifragacées
+Saururus cernuus -  Queue de Renard</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(SA)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sax</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saxifraga - fam. Saxifragacées
 Saxifraga arendtsi - Saxifrage
 Saxifraga aizoides - Saxifrage
 Saxifraga cernua - Saxifrage
